--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Oggetto della mail per Caruso</t>
   </si>
   <si>
-    <t xml:space="preserve">giuseppe.futia@gmail.com</t>
+    <t xml:space="preserve">giuseppe@synapta.it</t>
   </si>
   <si>
     <t xml:space="preserve">Progetto di Caruso</t>
@@ -71,11 +71,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -91,6 +92,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,8 +143,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -160,15 +172,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="62.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.79"/>
@@ -207,7 +219,7 @@
       <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -221,6 +233,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="giuseppe@synapta.it"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
